--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amh-Amhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amh-Amhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Amhr2</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H2">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I2">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J2">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.657332</v>
+        <v>0.5627505</v>
       </c>
       <c r="N2">
-        <v>1.314664</v>
+        <v>1.125501</v>
       </c>
       <c r="O2">
-        <v>0.3670998900931974</v>
+        <v>0.4911082076304461</v>
       </c>
       <c r="P2">
-        <v>0.29145609216889</v>
+        <v>0.3914941322890716</v>
       </c>
       <c r="Q2">
-        <v>0.10254543533</v>
+        <v>0.4034811348652501</v>
       </c>
       <c r="R2">
-        <v>0.4101817413200001</v>
+        <v>1.613924539461</v>
       </c>
       <c r="S2">
-        <v>0.0385589344368269</v>
+        <v>0.1114893665633697</v>
       </c>
       <c r="T2">
-        <v>0.02312433023337096</v>
+        <v>0.06575100996739072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H3">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I3">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J3">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.130265</v>
       </c>
       <c r="O3">
-        <v>0.2104061860552393</v>
+        <v>0.3287913076324387</v>
       </c>
       <c r="P3">
-        <v>0.2505755234913791</v>
+        <v>0.3931512414753141</v>
       </c>
       <c r="Q3">
-        <v>0.05877472188750001</v>
+        <v>0.2701259882775</v>
       </c>
       <c r="R3">
-        <v>0.3526483313250001</v>
+        <v>1.620755929665</v>
       </c>
       <c r="S3">
-        <v>0.02210035620317696</v>
+        <v>0.07464085114021637</v>
       </c>
       <c r="T3">
-        <v>0.01988083731753591</v>
+        <v>0.06602931963702642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H4">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I4">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J4">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.203816</v>
+        <v>0.03302333333333334</v>
       </c>
       <c r="N4">
-        <v>0.407632</v>
+        <v>0.09907000000000001</v>
       </c>
       <c r="O4">
-        <v>0.1138250247960469</v>
+        <v>0.02881921925136646</v>
       </c>
       <c r="P4">
-        <v>0.0903704899221314</v>
+        <v>0.03446049686839756</v>
       </c>
       <c r="Q4">
-        <v>0.03179580554</v>
+        <v>0.023677086045</v>
       </c>
       <c r="R4">
-        <v>0.12718322216</v>
+        <v>0.14206251627</v>
       </c>
       <c r="S4">
-        <v>0.01195579673768554</v>
+        <v>0.006542420691131051</v>
       </c>
       <c r="T4">
-        <v>0.00717005788679805</v>
+        <v>0.005787602638708806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H5">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I5">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J5">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.552705</v>
+        <v>0.17335</v>
       </c>
       <c r="N5">
-        <v>1.658115</v>
+        <v>0.52005</v>
       </c>
       <c r="O5">
-        <v>0.3086688990555164</v>
+        <v>0.1512812654857487</v>
       </c>
       <c r="P5">
-        <v>0.3675978944175995</v>
+        <v>0.1808941293672166</v>
       </c>
       <c r="Q5">
-        <v>0.08622336176250001</v>
+        <v>0.124288569675</v>
       </c>
       <c r="R5">
-        <v>0.517340170575</v>
+        <v>0.7457314180500001</v>
       </c>
       <c r="S5">
-        <v>0.03242154019263691</v>
+        <v>0.0343432510388887</v>
       </c>
       <c r="T5">
-        <v>0.0291654740868434</v>
+        <v>0.03038097054870813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -797,10 +797,10 @@
         <v>0.39932</v>
       </c>
       <c r="I6">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J6">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657332</v>
+        <v>0.5627505</v>
       </c>
       <c r="N6">
-        <v>1.314664</v>
+        <v>1.125501</v>
       </c>
       <c r="O6">
-        <v>0.3670998900931974</v>
+        <v>0.4911082076304461</v>
       </c>
       <c r="P6">
-        <v>0.29145609216889</v>
+        <v>0.3914941322890716</v>
       </c>
       <c r="Q6">
-        <v>0.08749527141333334</v>
+        <v>0.07490584322000002</v>
       </c>
       <c r="R6">
-        <v>0.52497162848</v>
+        <v>0.4494350593200001</v>
       </c>
       <c r="S6">
-        <v>0.03289980117693352</v>
+        <v>0.02069788223254086</v>
       </c>
       <c r="T6">
-        <v>0.02959570375086839</v>
+        <v>0.01830990752201661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -859,10 +859,10 @@
         <v>0.39932</v>
       </c>
       <c r="I7">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J7">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -877,10 +877,10 @@
         <v>1.130265</v>
       </c>
       <c r="O7">
-        <v>0.2104061860552393</v>
+        <v>0.3287913076324387</v>
       </c>
       <c r="P7">
-        <v>0.2505755234913791</v>
+        <v>0.3931512414753141</v>
       </c>
       <c r="Q7">
         <v>0.0501486022</v>
@@ -889,10 +889,10 @@
         <v>0.4513374198</v>
       </c>
       <c r="S7">
-        <v>0.01885677951539799</v>
+        <v>0.0138569945660127</v>
       </c>
       <c r="T7">
-        <v>0.02544451517648255</v>
+        <v>0.0183874093629167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,40 +921,40 @@
         <v>0.39932</v>
       </c>
       <c r="I8">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J8">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.203816</v>
+        <v>0.03302333333333334</v>
       </c>
       <c r="N8">
-        <v>0.407632</v>
+        <v>0.09907000000000001</v>
       </c>
       <c r="O8">
-        <v>0.1138250247960469</v>
+        <v>0.02881921925136646</v>
       </c>
       <c r="P8">
-        <v>0.0903704899221314</v>
+        <v>0.03446049686839756</v>
       </c>
       <c r="Q8">
-        <v>0.02712926837333333</v>
+        <v>0.004395625822222223</v>
       </c>
       <c r="R8">
-        <v>0.16277561024</v>
+        <v>0.0395606324</v>
       </c>
       <c r="S8">
-        <v>0.01020109454077678</v>
+        <v>0.001214593437516758</v>
       </c>
       <c r="T8">
-        <v>0.009176607795888516</v>
+        <v>0.001611693404276128</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,40 +983,40 @@
         <v>0.39932</v>
       </c>
       <c r="I9">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J9">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.552705</v>
+        <v>0.17335</v>
       </c>
       <c r="N9">
-        <v>1.658115</v>
+        <v>0.52005</v>
       </c>
       <c r="O9">
-        <v>0.3086688990555164</v>
+        <v>0.1512812654857487</v>
       </c>
       <c r="P9">
-        <v>0.3675978944175995</v>
+        <v>0.1808941293672166</v>
       </c>
       <c r="Q9">
-        <v>0.07356872020000001</v>
+        <v>0.02307404066666667</v>
       </c>
       <c r="R9">
-        <v>0.6621184818</v>
+        <v>0.207666366</v>
       </c>
       <c r="S9">
-        <v>0.02766316657259504</v>
+        <v>0.006375788000207832</v>
       </c>
       <c r="T9">
-        <v>0.03732746947118894</v>
+        <v>0.008460292267021299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H10">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I10">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J10">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.657332</v>
+        <v>0.5627505</v>
       </c>
       <c r="N10">
-        <v>1.314664</v>
+        <v>1.125501</v>
       </c>
       <c r="O10">
-        <v>0.3670998900931974</v>
+        <v>0.4911082076304461</v>
       </c>
       <c r="P10">
-        <v>0.29145609216889</v>
+        <v>0.3914941322890716</v>
       </c>
       <c r="Q10">
-        <v>0.260177921588</v>
+        <v>0.199987271354</v>
       </c>
       <c r="R10">
-        <v>1.561067529528</v>
+        <v>1.199923628124</v>
       </c>
       <c r="S10">
-        <v>0.09783159424051548</v>
+        <v>0.05526021485847286</v>
       </c>
       <c r="T10">
-        <v>0.0880064552684123</v>
+        <v>0.04888468357959139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H11">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I11">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J11">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1125,22 +1125,22 @@
         <v>1.130265</v>
       </c>
       <c r="O11">
-        <v>0.2104061860552393</v>
+        <v>0.3287913076324387</v>
       </c>
       <c r="P11">
-        <v>0.2505755234913791</v>
+        <v>0.3931512414753141</v>
       </c>
       <c r="Q11">
-        <v>0.149123019795</v>
+        <v>0.13388918254</v>
       </c>
       <c r="R11">
-        <v>1.342107178155</v>
+        <v>1.20500264286</v>
       </c>
       <c r="S11">
-        <v>0.05607294683369348</v>
+        <v>0.03699607952192657</v>
       </c>
       <c r="T11">
-        <v>0.07566238686383138</v>
+        <v>0.04909160177208804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H12">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I12">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J12">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.203816</v>
+        <v>0.03302333333333334</v>
       </c>
       <c r="N12">
-        <v>0.407632</v>
+        <v>0.09907000000000001</v>
       </c>
       <c r="O12">
-        <v>0.1138250247960469</v>
+        <v>0.02881921925136646</v>
       </c>
       <c r="P12">
-        <v>0.0903704899221314</v>
+        <v>0.03446049686839756</v>
       </c>
       <c r="Q12">
-        <v>0.080672207144</v>
+        <v>0.01173565607555555</v>
       </c>
       <c r="R12">
-        <v>0.484033242864</v>
+        <v>0.10562090468</v>
       </c>
       <c r="S12">
-        <v>0.03033420586815323</v>
+        <v>0.003242780762243603</v>
       </c>
       <c r="T12">
-        <v>0.02728776887020062</v>
+        <v>0.004302977609286993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H13">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I13">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J13">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.552705</v>
+        <v>0.17335</v>
       </c>
       <c r="N13">
-        <v>1.658115</v>
+        <v>0.52005</v>
       </c>
       <c r="O13">
-        <v>0.3086688990555164</v>
+        <v>0.1512812654857487</v>
       </c>
       <c r="P13">
-        <v>0.3675978944175995</v>
+        <v>0.1808941293672166</v>
       </c>
       <c r="Q13">
-        <v>0.218765613345</v>
+        <v>0.06160419846666666</v>
       </c>
       <c r="R13">
-        <v>1.968890520105</v>
+        <v>0.5544377861999999</v>
       </c>
       <c r="S13">
-        <v>0.08225981892666735</v>
+        <v>0.01702238957711503</v>
       </c>
       <c r="T13">
-        <v>0.1109978090047217</v>
+        <v>0.02258770067335925</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H14">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I14">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J14">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.657332</v>
+        <v>0.5627505</v>
       </c>
       <c r="N14">
-        <v>1.314664</v>
+        <v>1.125501</v>
       </c>
       <c r="O14">
-        <v>0.3670998900931974</v>
+        <v>0.4911082076304461</v>
       </c>
       <c r="P14">
-        <v>0.29145609216889</v>
+        <v>0.3914941322890716</v>
       </c>
       <c r="Q14">
-        <v>0.241363436418</v>
+        <v>0.12368721377025</v>
       </c>
       <c r="R14">
-        <v>0.9654537456719999</v>
+        <v>0.494748855081</v>
       </c>
       <c r="S14">
-        <v>0.09075700825043147</v>
+        <v>0.0341770851810423</v>
       </c>
       <c r="T14">
-        <v>0.05442824238865189</v>
+        <v>0.02015598381858055</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H15">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I15">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J15">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.130265</v>
       </c>
       <c r="O15">
-        <v>0.2104061860552393</v>
+        <v>0.3287913076324387</v>
       </c>
       <c r="P15">
-        <v>0.2505755234913791</v>
+        <v>0.3931512414753141</v>
       </c>
       <c r="Q15">
-        <v>0.1383393498075</v>
+        <v>0.0828071698275</v>
       </c>
       <c r="R15">
-        <v>0.830036098845</v>
+        <v>0.496843018965</v>
       </c>
       <c r="S15">
-        <v>0.05201809229337885</v>
+        <v>0.02288116621377252</v>
       </c>
       <c r="T15">
-        <v>0.04679396209480873</v>
+        <v>0.02024129969738627</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H16">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I16">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J16">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.203816</v>
+        <v>0.03302333333333334</v>
       </c>
       <c r="N16">
-        <v>0.407632</v>
+        <v>0.09907000000000001</v>
       </c>
       <c r="O16">
-        <v>0.1138250247960469</v>
+        <v>0.02881921925136646</v>
       </c>
       <c r="P16">
-        <v>0.0903704899221314</v>
+        <v>0.03446049686839756</v>
       </c>
       <c r="Q16">
-        <v>0.07483848368399999</v>
+        <v>0.007258214945000001</v>
       </c>
       <c r="R16">
-        <v>0.299353934736</v>
+        <v>0.04354928967</v>
       </c>
       <c r="S16">
-        <v>0.02814062055942802</v>
+        <v>0.00200558022835215</v>
       </c>
       <c r="T16">
-        <v>0.01687632224003315</v>
+        <v>0.001774190619916619</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H17">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I17">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J17">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.552705</v>
+        <v>0.17335</v>
       </c>
       <c r="N17">
-        <v>1.658115</v>
+        <v>0.52005</v>
       </c>
       <c r="O17">
-        <v>0.3086688990555164</v>
+        <v>0.1512812654857487</v>
       </c>
       <c r="P17">
-        <v>0.3675978944175995</v>
+        <v>0.1808941293672166</v>
       </c>
       <c r="Q17">
-        <v>0.2029458144825</v>
+        <v>0.038100683175</v>
       </c>
       <c r="R17">
-        <v>1.217674886895</v>
+        <v>0.22860409905</v>
       </c>
       <c r="S17">
-        <v>0.07631128903667359</v>
+        <v>0.01052792972397836</v>
       </c>
       <c r="T17">
-        <v>0.06864741495032915</v>
+        <v>0.009313291933861288</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H18">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I18">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J18">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.657332</v>
+        <v>0.5627505</v>
       </c>
       <c r="N18">
-        <v>1.314664</v>
+        <v>1.125501</v>
       </c>
       <c r="O18">
-        <v>0.3670998900931974</v>
+        <v>0.4911082076304461</v>
       </c>
       <c r="P18">
-        <v>0.29145609216889</v>
+        <v>0.3914941322890716</v>
       </c>
       <c r="Q18">
-        <v>0.2847005682906666</v>
+        <v>0.8126576799575</v>
       </c>
       <c r="R18">
-        <v>1.708203409744</v>
+        <v>4.875946079745001</v>
       </c>
       <c r="S18">
-        <v>0.1070525519884901</v>
+        <v>0.2245524812494089</v>
       </c>
       <c r="T18">
-        <v>0.09630136052758649</v>
+        <v>0.1986452101390335</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H19">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I19">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J19">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1621,22 +1621,22 @@
         <v>1.130265</v>
       </c>
       <c r="O19">
-        <v>0.2104061860552393</v>
+        <v>0.3287913076324387</v>
       </c>
       <c r="P19">
-        <v>0.2505755234913791</v>
+        <v>0.3931512414753141</v>
       </c>
       <c r="Q19">
-        <v>0.16317836741</v>
+        <v>0.5440649883250001</v>
       </c>
       <c r="R19">
-        <v>1.46860530669</v>
+        <v>4.896584894925001</v>
       </c>
       <c r="S19">
-        <v>0.06135801120959207</v>
+        <v>0.1503353085836815</v>
       </c>
       <c r="T19">
-        <v>0.08279382203872057</v>
+        <v>0.1994860319429256</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H20">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I20">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J20">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.203816</v>
+        <v>0.03302333333333334</v>
       </c>
       <c r="N20">
-        <v>0.407632</v>
+        <v>0.09907000000000001</v>
       </c>
       <c r="O20">
-        <v>0.1138250247960469</v>
+        <v>0.02881921925136646</v>
       </c>
       <c r="P20">
-        <v>0.0903704899221314</v>
+        <v>0.03446049686839756</v>
       </c>
       <c r="Q20">
-        <v>0.08827583477866666</v>
+        <v>0.04768839023888889</v>
       </c>
       <c r="R20">
-        <v>0.529655008672</v>
+        <v>0.4291955121500001</v>
       </c>
       <c r="S20">
-        <v>0.03319330709000336</v>
+        <v>0.01317719209334565</v>
       </c>
       <c r="T20">
-        <v>0.02985973312921106</v>
+        <v>0.01748535182862925</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,309 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.444081666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.332245</v>
+      </c>
+      <c r="I21">
+        <v>0.4572362623154984</v>
+      </c>
+      <c r="J21">
+        <v>0.507402777603721</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.17335</v>
+      </c>
+      <c r="N21">
+        <v>0.52005</v>
+      </c>
+      <c r="O21">
+        <v>0.1512812654857487</v>
+      </c>
+      <c r="P21">
+        <v>0.1808941293672166</v>
+      </c>
+      <c r="Q21">
+        <v>0.2503315569166667</v>
+      </c>
+      <c r="R21">
+        <v>2.25298401225</v>
+      </c>
+      <c r="S21">
+        <v>0.06917128038906235</v>
+      </c>
+      <c r="T21">
+        <v>0.09178618369313256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J22">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5627505</v>
+      </c>
+      <c r="N22">
+        <v>1.125501</v>
+      </c>
+      <c r="O22">
+        <v>0.4911082076304461</v>
+      </c>
+      <c r="P22">
+        <v>0.3914941322890716</v>
+      </c>
+      <c r="Q22">
+        <v>0.162606381808</v>
+      </c>
+      <c r="R22">
+        <v>0.9756382908480001</v>
+      </c>
+      <c r="S22">
+        <v>0.04493117754561148</v>
+      </c>
+      <c r="T22">
+        <v>0.03974733726245883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J23">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.4331153333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.299346</v>
-      </c>
-      <c r="I21">
-        <v>0.291616954615029</v>
-      </c>
-      <c r="J21">
-        <v>0.3304146426000344</v>
-      </c>
-      <c r="K21">
+      <c r="M23">
+        <v>0.376755</v>
+      </c>
+      <c r="N23">
+        <v>1.130265</v>
+      </c>
+      <c r="O23">
+        <v>0.3287913076324387</v>
+      </c>
+      <c r="P23">
+        <v>0.3931512414753141</v>
+      </c>
+      <c r="Q23">
+        <v>0.10886310608</v>
+      </c>
+      <c r="R23">
+        <v>0.9797679547200001</v>
+      </c>
+      <c r="S23">
+        <v>0.03008090760682905</v>
+      </c>
+      <c r="T23">
+        <v>0.03991557906297109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
         <v>3</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.552705</v>
-      </c>
-      <c r="N21">
-        <v>1.658115</v>
-      </c>
-      <c r="O21">
-        <v>0.3086688990555164</v>
-      </c>
-      <c r="P21">
-        <v>0.3675978944175995</v>
-      </c>
-      <c r="Q21">
-        <v>0.23938501031</v>
-      </c>
-      <c r="R21">
-        <v>2.15446509279</v>
-      </c>
-      <c r="S21">
-        <v>0.09001308432694347</v>
-      </c>
-      <c r="T21">
-        <v>0.1214597269045163</v>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J24">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03302333333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.09907000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.02881921925136646</v>
+      </c>
+      <c r="P24">
+        <v>0.03446049686839756</v>
+      </c>
+      <c r="Q24">
+        <v>0.009542070151111111</v>
+      </c>
+      <c r="R24">
+        <v>0.08587863136000001</v>
+      </c>
+      <c r="S24">
+        <v>0.002636652038777237</v>
+      </c>
+      <c r="T24">
+        <v>0.003498680767579768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J25">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.17335</v>
+      </c>
+      <c r="N25">
+        <v>0.52005</v>
+      </c>
+      <c r="O25">
+        <v>0.1512812654857487</v>
+      </c>
+      <c r="P25">
+        <v>0.1808941293672166</v>
+      </c>
+      <c r="Q25">
+        <v>0.05008936693333334</v>
+      </c>
+      <c r="R25">
+        <v>0.4508043024</v>
+      </c>
+      <c r="S25">
+        <v>0.01384062675649644</v>
+      </c>
+      <c r="T25">
+        <v>0.01836569025113413</v>
       </c>
     </row>
   </sheetData>
